--- a/data/open/OPN_FINAL_ASY_SITCCodeClassifications_31-01-20.xlsx
+++ b/data/open/OPN_FINAL_ASY_SITCCodeClassifications_31-01-20.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hugopigott/Dropbox/2. Work/Repositories/vnso-RAP-tradeStats-materials/data/open/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC4EE9CD-05FE-4E4A-8F3F-F7001464E3CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A5ACB2F-B52A-974C-BC72-FE4C8D776D01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15960" xr2:uid="{32A96F1C-8DB9-BA43-89A2-AB7D2AAE6138}"/>
+    <workbookView xWindow="780" yWindow="460" windowWidth="27640" windowHeight="15960" xr2:uid="{32A96F1C-8DB9-BA43-89A2-AB7D2AAE6138}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,37 +38,37 @@
     <t>Description</t>
   </si>
   <si>
-    <t>0.Food &amp; Live Animals</t>
-  </si>
-  <si>
-    <t>1.Beverages &amp; Tobacco</t>
-  </si>
-  <si>
-    <t>2.Crude Materials Except Fuels</t>
-  </si>
-  <si>
-    <t>3.Mineral Fuels</t>
-  </si>
-  <si>
-    <t>4.Oils, Fats &amp; Waxes</t>
-  </si>
-  <si>
-    <t>5.Chemical Products</t>
-  </si>
-  <si>
-    <t>6.Basic Manufactured Products</t>
-  </si>
-  <si>
-    <t>7.Machines &amp; Transport Equipment</t>
-  </si>
-  <si>
-    <t>8.Miscellaneous Manufactured Goods</t>
-  </si>
-  <si>
-    <t>9.Goods N.E.C.</t>
-  </si>
-  <si>
-    <t>SITC1</t>
+    <t>SITC_1</t>
+  </si>
+  <si>
+    <t>Food &amp; Live Animals</t>
+  </si>
+  <si>
+    <t>Beverages &amp; Tobacco</t>
+  </si>
+  <si>
+    <t>Crude Materials Except Fuels</t>
+  </si>
+  <si>
+    <t>Mineral Fuels</t>
+  </si>
+  <si>
+    <t>Oils, Fats &amp; Waxes</t>
+  </si>
+  <si>
+    <t>Chemical Products</t>
+  </si>
+  <si>
+    <t>Basic Manufactured Products</t>
+  </si>
+  <si>
+    <t>Machines &amp; Transport Equipment</t>
+  </si>
+  <si>
+    <t>Miscellaneous Manufactured Goods</t>
+  </si>
+  <si>
+    <t>Goods N.E.C.</t>
   </si>
 </sst>
 </file>
@@ -423,7 +423,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -433,7 +433,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -444,7 +444,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -452,7 +452,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -460,7 +460,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -468,7 +468,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -476,7 +476,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -484,7 +484,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -492,7 +492,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -500,7 +500,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -508,7 +508,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -516,7 +516,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
